--- a/excels/Report.xlsx
+++ b/excels/Report.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,37 +444,37 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-28</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -638,282 +638,486 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>22</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>qw</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Общее</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+          <t>hh</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
       <c r="I7" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>88</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>10</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>98</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>rty</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dinamo</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2025-02-18</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2025-02-19</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-02-22</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Cумма поинта</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Cумма поинта с коэффициентом</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Бонус строки</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Бонус столбца</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Бонус минимумов</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Итог</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>qq</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10</v>
-      </c>
-      <c r="J11" t="n">
+          <t>Общее</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>20</v>
+      </c>
+      <c r="J10" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>djf</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10</v>
-      </c>
-      <c r="J12" t="n">
-        <v>20</v>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ввв</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10</v>
-      </c>
-      <c r="J13" t="n">
-        <v>10</v>
+          <t>Милан</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Cумма поинта</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Cумма поинта с коэффициентом</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Бонус строки</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Бонус столбца</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Бонус минимумов</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Итог</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ффф</t>
+          <t>qq</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>djf</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>10</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>10</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J15" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>ввв</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ффф</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>qw</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>hh</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>rty</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Общее</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>40</v>
-      </c>
-      <c r="J16" t="n">
-        <v>80</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>10</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>90</v>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>27</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -942,17 +1146,17 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dinamo</t>
+          <t>Милан</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/excels/Report.xlsx
+++ b/excels/Report.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,37 +444,37 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-09</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2025-02-28</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.600000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -638,10 +638,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="7">
@@ -746,152 +746,152 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>rrrr</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Общее</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>20</v>
-      </c>
-      <c r="J10" t="n">
-        <v>30</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Милан</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-02-24</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2025-02-26</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-02-28</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2025-03-01</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-03-02</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Cумма поинта</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Cумма поинта с коэффициентом</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Бонус строки</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Бонус столбца</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Бонус минимумов</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Итог</t>
-        </is>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>114</v>
+      </c>
+      <c r="J11" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>155.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qq</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
+          <t>Hrr</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Cумма поинта</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Cумма поинта с коэффициентом</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Бонус строки</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Бонус столбца</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Бонус минимумов</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Итог</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>djf</t>
+          <t>qq</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ввв</t>
+          <t>djf</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -955,7 +955,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ффф</t>
+          <t>ввв</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -989,11 +989,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>qw</t>
+          <t>ффф</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1014,16 +1014,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hh</t>
+          <t>qw</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1057,67 +1057,511 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>hh</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>rty</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>rrrr</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Общее</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J22" t="n">
-        <v>27</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>27</v>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Милан</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Cумма поинта</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Cумма поинта с коэффициентом</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Бонус строки</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Бонус столбца</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Бонус минимумов</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Итог</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>djf</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ввв</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ффф</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>qw</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>hh</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>rty</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>rrrr</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Общее</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1146,17 +1590,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Милан</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>27</v>
+        <v>229.1</v>
       </c>
     </row>
   </sheetData>
